--- a/CashFlow/CRWD_cashflow.xlsx
+++ b/CashFlow/CRWD_cashflow.xlsx
@@ -321,10 +321,10 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>11325000.0</v>
+        <v>36000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>3759000.0</v>
+        <v>25000000.0</v>
       </c>
       <c r="D7" s="0" t="inlineStr">
         <is>
